--- a/biology/Zoologie/Anastrepha/Anastrepha.xlsx
+++ b/biology/Zoologie/Anastrepha/Anastrepha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anastrepha est un genre d'insectes diptères de la famille des Tephritidae, originaire des régions tropicales d'Amérique.
 Ce genre est l'un des plus diversifiés de la famille des Tephritidae avec plus de 200 espèces décrites.
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (18 sept. 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (18 sept. 2013) :
 Acrotoxa Loew, 1873
 Lucumaphila Stone, 1939
 Phobema Aldrich, 1925
@@ -551,9 +565,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (18 sept. 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (18 sept. 2013) :
 Anastrepha aberrans
 Anastrepha acidusa
 Anastrepha acris
@@ -760,7 +776,7 @@
 Anastrepha zeteki
 Anastrepha zucchii
 Anastrepha zuelaniae
-Selon ITIS      (18 sept. 2013)[1] :
+Selon ITIS      (18 sept. 2013) :
 Anastrepha aberrans Norrbom, 1993
 Anastrepha acidusa (Walker, 1849)
 Anastrepha acris Stone, 1942
@@ -944,7 +960,7 @@
 Anastrepha zernyi Lima, 1934
 Anastrepha zeteki Greene, 1934
 Anastrepha zuelaniae Stone, 1942
-Selon NCBI  (18 sept. 2013)[3] :
+Selon NCBI  (18 sept. 2013) :
 Anastrepha acris
 Anastrepha alveata
 Anastrepha amita
